--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail10 Features.xlsx
@@ -3162,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3174,28 +3174,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3216,115 +3214,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3341,72 +3329,66 @@
         <v>3.202686474244301e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6473747007703022</v>
+        <v>1.73494649591721e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.7707101253005746</v>
+        <v>5.462296824729682e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.73494649591721e-06</v>
+        <v>-0.04594853306737953</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.462296824729682e-06</v>
+        <v>0.2583815816006954</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04594853306737953</v>
+        <v>0.06873231001633955</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2583815816006954</v>
+        <v>1.693379192596935</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06873231001633955</v>
+        <v>1.885523937095875</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.601581269809099</v>
+        <v>3.583379409006697</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.885523937095875</v>
+        <v>1.477053137224894e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.583379409006697</v>
+        <v>33634425.51061141</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.477053137224894e-14</v>
+        <v>3.387981545164151e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>33634425.51061141</v>
+        <v>16.70952666608182</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.387981545164151e-06</v>
+        <v>0.0001605873342558133</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>16.70952666608182</v>
+        <v>10.04699284838236</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001605873342558133</v>
+        <v>1.202505747087607</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.04699284838236</v>
+        <v>0.01621001718007197</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.202505747087607</v>
+        <v>2.66182274571975</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01621001718007197</v>
+        <v>0.9572101132398538</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.66182274571975</v>
+        <v>1.754714393075815</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9572101132398538</v>
+        <v>21</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.754714393075815</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1895301289284835</v>
       </c>
     </row>
@@ -3421,72 +3403,66 @@
         <v>2.927950963709573e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1459553252034484</v>
+        <v>1.322592001294403e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8097621006930931</v>
+        <v>5.451282539505892e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.322592001294403e-06</v>
+        <v>-0.02618445158768809</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.451282539505892e-06</v>
+        <v>0.2199560874053909</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02618445158768809</v>
+        <v>0.04897065251402526</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2199560874053909</v>
+        <v>1.694577682621469</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04897065251402526</v>
+        <v>1.70890282616416</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.604211987082653</v>
+        <v>3.539204027358943</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.70890282616416</v>
+        <v>1.514155603250874e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.539204027358943</v>
+        <v>33242318.30676974</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.514155603250874e-14</v>
+        <v>3.433214896328037e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>33242318.30676974</v>
+        <v>16.73220263423631</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.433214896328037e-06</v>
+        <v>0.0001578137548159705</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>16.73220263423631</v>
+        <v>9.948803355158567</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001578137548159705</v>
+        <v>1.205952958920793</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.948803355158567</v>
+        <v>0.01562019843154034</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.205952958920793</v>
+        <v>2.66900743543534</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01562019843154034</v>
+        <v>0.9573827308555449</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.66900743543534</v>
+        <v>1.745487947997173</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9573827308555449</v>
+        <v>18</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.745487947997173</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1937034155332634</v>
       </c>
     </row>
@@ -3501,72 +3477,66 @@
         <v>2.826389172126214e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.02470772604106207</v>
+        <v>1.015764914123773e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.196515707672223</v>
+        <v>5.446439631621158e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.015764914123773e-06</v>
+        <v>-0.008191689119543195</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.446439631621158e-06</v>
+        <v>0.1810840419576112</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.008191689119543195</v>
+        <v>0.03280242126771998</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1810840419576112</v>
+        <v>1.700303496917433</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03280242126771998</v>
+        <v>1.876733338704696</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.608221912792886</v>
+        <v>3.576724804760743</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.876733338704696</v>
+        <v>1.482554453865484e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.576724804760743</v>
+        <v>34177944.7094656</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.482554453865484e-14</v>
+        <v>3.342677625062604e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>34177944.7094656</v>
+        <v>17.31819157812672</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.342677625062604e-06</v>
+        <v>0.0001403316659467398</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>17.31819157812672</v>
+        <v>8.521018431220694</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001403316659467398</v>
+        <v>1.279538581115978</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.521018431220694</v>
+        <v>0.01018916723456601</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.279538581115978</v>
+        <v>2.993108274468064</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01018916723456601</v>
+        <v>0.9595116276389078</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.993108274468064</v>
+        <v>1.746606716529503</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9595116276389078</v>
+        <v>19</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.746606716529503</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1982779826757961</v>
       </c>
     </row>
@@ -3581,72 +3551,66 @@
         <v>2.821889481302121e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.03287117203281299</v>
+        <v>8.966461860991279e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.212623057852002</v>
+        <v>5.446255163592725e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.966461860991279e-07</v>
+        <v>0.006211678808988283</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.446255163592725e-06</v>
+        <v>0.1493156366321254</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.006211678808988283</v>
+        <v>0.02230352496124985</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1493156366321254</v>
+        <v>1.702467073518895</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02230352496124985</v>
+        <v>1.766006373945996</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.604486583512585</v>
+        <v>3.464090556628515</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.766006373945996</v>
+        <v>1.580531783922207e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.464090556628515</v>
+        <v>32698352.04114115</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.580531783922207e-14</v>
+        <v>3.508066034467676e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>32698352.04114115</v>
+        <v>16.89876491323918</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.508066034467676e-06</v>
+        <v>0.0001292328435779051</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>16.89876491323918</v>
+        <v>7.633675383162596</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001292328435779051</v>
+        <v>1.388101999793073</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.633675383162596</v>
+        <v>0.007530785475141456</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.388101999793073</v>
+        <v>3.157429973229164</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007530785475141456</v>
+        <v>0.9606591230041285</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.157429973229164</v>
+        <v>1.756609839541939</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9606591230041285</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.756609839541939</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2055555549824567</v>
       </c>
     </row>
@@ -3661,72 +3625,66 @@
         <v>2.867181966145791e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.003158363323557027</v>
+        <v>9.269682156740766e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.204352608138956</v>
+        <v>5.449698339982534e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.269682156740766e-07</v>
+        <v>0.01736109682744981</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.449698339982534e-06</v>
+        <v>0.1267810715565577</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01736109682744981</v>
+        <v>0.01635923368147326</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1267810715565577</v>
+        <v>1.677717752457535</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01635923368147326</v>
+        <v>1.650402136756502</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.577603836239157</v>
+        <v>3.486859544225027</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.650402136756502</v>
+        <v>1.559957618958809e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.486859544225027</v>
+        <v>34238347.45963494</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.559957618958809e-14</v>
+        <v>3.327795020631177e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>34238347.45963494</v>
+        <v>18.28682839568656</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.327795020631177e-06</v>
+        <v>0.0001243044574670331</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>18.28682839568656</v>
+        <v>8.346568672101952</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001243044574670331</v>
+        <v>1.37802928694181</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.346568672101952</v>
+        <v>0.008659695959116222</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.37802928694181</v>
+        <v>3.068669316549129</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008659695959116222</v>
+        <v>0.9594556399659649</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.068669316549129</v>
+        <v>1.745938605987537</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9594556399659649</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.745938605987537</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2236786684058256</v>
       </c>
     </row>
@@ -3741,72 +3699,66 @@
         <v>2.935073958374248e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.0183439289087778</v>
+        <v>9.463620236117771e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.220044795814191</v>
+        <v>5.455902007199434e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.463620236117771e-07</v>
+        <v>0.0247152928781253</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.455902007199434e-06</v>
+        <v>0.1113909480827989</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0247152928781253</v>
+        <v>0.01301134362164176</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1113909480827989</v>
+        <v>1.676356948855175</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01301134362164176</v>
+        <v>1.742693435856003</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.57802259552509</v>
+        <v>3.397271228831035</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.742693435856003</v>
+        <v>1.590358224903362e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.397271228831035</v>
+        <v>33583874.76576892</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.590358224903362e-14</v>
+        <v>3.391674749101415e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>33583874.76576892</v>
+        <v>17.93727897911634</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.391674749101415e-06</v>
+        <v>0.0001262258872046683</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>17.93727897911634</v>
+        <v>8.912774253184008</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001262258872046683</v>
+        <v>1.425891937264942</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.912774253184008</v>
+        <v>0.0100270745808762</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.425891937264942</v>
+        <v>2.941492329432437</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0100270745808762</v>
+        <v>0.9591704305308364</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.941492329432437</v>
+        <v>1.783899662908435</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9591704305308364</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.783899662908435</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2331421711021829</v>
       </c>
     </row>
@@ -3821,72 +3773,66 @@
         <v>3.006983873958773e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.0188614855659802</v>
+        <v>9.486031967498324e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.250954135090788</v>
+        <v>5.463949119274969e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.486031967498324e-07</v>
+        <v>0.02899214750096199</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.463949119274969e-06</v>
+        <v>0.1006642455998586</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02899214750096199</v>
+        <v>0.01096951279545342</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1006642455998586</v>
+        <v>1.673590417546103</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01096951279545342</v>
+        <v>1.85623019195496</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.577867147053755</v>
+        <v>3.320264745415008</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.85623019195496</v>
+        <v>1.664983650897648e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.320264745415008</v>
+        <v>31980575.14479869</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.664983650897648e-14</v>
+        <v>3.548368723469598e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>31980575.14479869</v>
+        <v>17.02873994513948</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.548368723469598e-06</v>
+        <v>0.0001137421340997242</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>17.02873994513948</v>
+        <v>7.820668711932826</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001137421340997242</v>
+        <v>1.463643242924408</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.820668711932826</v>
+        <v>0.006956794121880048</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.463643242924408</v>
+        <v>3.172764857578378</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006956794121880048</v>
+        <v>0.9587308954382507</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.172764857578378</v>
+        <v>1.780809227387047</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9587308954382507</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.780809227387047</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2368804796312427</v>
       </c>
     </row>
@@ -3901,72 +3847,66 @@
         <v>3.07234304452862e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.001773771208742106</v>
+        <v>9.486031967498324e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.286052991899918</v>
+        <v>5.473193214801371e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.486031967498324e-07</v>
+        <v>0.03159507907072868</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.473193214801371e-06</v>
+        <v>0.0932093559837963</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03159507907072868</v>
+        <v>0.009683921553298936</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.0932093559837963</v>
+        <v>1.673395985014627</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.009683921553298936</v>
+        <v>1.664445500658798</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.57219346711658</v>
+        <v>3.350748744230507</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.664445500658798</v>
+        <v>1.634826521372909e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.350748744230507</v>
+        <v>31412170.07549792</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.634826521372909e-14</v>
+        <v>3.623257066442e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>31412170.07549792</v>
+        <v>16.13123265573797</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.623257066442e-06</v>
+        <v>0.0001007958664869208</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>16.13123265573797</v>
+        <v>6.292207828602665</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001007958664869208</v>
+        <v>1.317528900003148</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.292207828602665</v>
+        <v>0.003990697785768372</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.317528900003148</v>
+        <v>3.325219598853225</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.003990697785768372</v>
+        <v>0.9581719605370658</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.325219598853225</v>
+        <v>1.76346347676442</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9581719605370658</v>
+        <v>13</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.76346347676442</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2522754880056496</v>
       </c>
     </row>
@@ -4343,7 +4283,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.706566408527296</v>
+        <v>1.752269763993482</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.545305096637791</v>
@@ -4432,7 +4372,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.735997310259288</v>
+        <v>1.776678250777668</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.598484071983131</v>
@@ -4521,7 +4461,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.780514015876637</v>
+        <v>1.822127273095789</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.669336937842744</v>
@@ -4610,7 +4550,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.761119689294462</v>
+        <v>1.803523181759524</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.767223950880659</v>
@@ -4699,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.765419414707745</v>
+        <v>1.806210899494222</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.593326903644018</v>
@@ -4788,7 +4728,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.779850915615549</v>
+        <v>1.819956248273063</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.591467857716118</v>
@@ -4877,7 +4817,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.814629979175508</v>
+        <v>1.850010708040302</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.572481721619159</v>
@@ -4966,7 +4906,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.804640232749766</v>
+        <v>1.833425703651938</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.699279785818268</v>
@@ -5055,7 +4995,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.783423485787358</v>
+        <v>1.823779612464556</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.762533038377927</v>
@@ -5144,7 +5084,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.788377599409215</v>
+        <v>1.831417768155126</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.803206356919701</v>
@@ -5233,7 +5173,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.803561806179562</v>
+        <v>1.844866547837021</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.53970074778287</v>
@@ -5322,7 +5262,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.838905066442931</v>
+        <v>1.884161622246965</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.922408985190685</v>
@@ -5411,7 +5351,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.838486805716908</v>
+        <v>1.880003379464528</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.928071756254624</v>
@@ -5500,7 +5440,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.835485077477349</v>
+        <v>1.879572478839561</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.028776404462088</v>
@@ -5589,7 +5529,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.862040672291129</v>
+        <v>1.902856626360356</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.96217087069594</v>
@@ -5678,7 +5618,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.863492686043934</v>
+        <v>1.905100562345418</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.79065080680029</v>
@@ -5767,7 +5707,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.830106643643952</v>
+        <v>1.871612231754369</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.741172594996141</v>
@@ -5856,7 +5796,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.831571117193152</v>
+        <v>1.867581044092265</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.75119416317712</v>
@@ -5945,7 +5885,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.831237241394605</v>
+        <v>1.864861509890284</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.635001578720922</v>
@@ -6034,7 +5974,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.828172223710114</v>
+        <v>1.86291001676182</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.606611992899052</v>
@@ -6123,7 +6063,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.800072138491704</v>
+        <v>1.829306349667289</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.6179646117186</v>
@@ -6212,7 +6152,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.796236797897186</v>
+        <v>1.82907213743767</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.641296711874968</v>
@@ -6301,7 +6241,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.823070478274087</v>
+        <v>1.85559145772736</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.854866189815395</v>
@@ -6390,7 +6330,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.786743337928362</v>
+        <v>1.820065483197908</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.787916228767497</v>
@@ -6479,7 +6419,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.777829148753168</v>
+        <v>1.814102204619782</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.669280645750904</v>
@@ -6568,7 +6508,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.779249166561896</v>
+        <v>1.815123580443344</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.785267800772361</v>
@@ -6657,7 +6597,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.774487369811094</v>
+        <v>1.807660335229536</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.694369244639649</v>
@@ -6746,7 +6686,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.781413957384671</v>
+        <v>1.81512730581261</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.828466821814996</v>
@@ -6835,7 +6775,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.781687462193391</v>
+        <v>1.817871644684673</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.755839230043337</v>
@@ -6924,7 +6864,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.771599767138526</v>
+        <v>1.808257179429005</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.844978240556566</v>
@@ -7013,7 +6953,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.768818873867368</v>
+        <v>1.805234042406576</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.109177079868765</v>
@@ -7102,7 +7042,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.794820881003667</v>
+        <v>1.829552184673547</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.761305835977109</v>
@@ -7191,7 +7131,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.79492928541151</v>
+        <v>1.832241806356061</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.830199611336847</v>
@@ -7280,7 +7220,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.828979740838534</v>
+        <v>1.86768985779228</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.824979358857212</v>
@@ -7369,7 +7309,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.830055910668644</v>
+        <v>1.869643859505181</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.699281594887132</v>
@@ -7458,7 +7398,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.859234175889086</v>
+        <v>1.898285639329848</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.55079912612066</v>
@@ -7547,7 +7487,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.856210452614203</v>
+        <v>1.896417443709582</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.764733930207492</v>
@@ -7636,7 +7576,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.854872479120319</v>
+        <v>1.891312104259659</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.619813401446934</v>
@@ -7725,7 +7665,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.873649157902313</v>
+        <v>1.90729677990001</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.63445531128076</v>
@@ -7814,7 +7754,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.88169359435749</v>
+        <v>1.912075866422908</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.780841052962402</v>
@@ -7903,7 +7843,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.882692242015781</v>
+        <v>1.911273074120944</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.960420057693826</v>
@@ -7992,7 +7932,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.885401315101058</v>
+        <v>1.913168955191314</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.902476569946963</v>
@@ -8081,7 +8021,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.884976272279403</v>
+        <v>1.912978946855871</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.05719158659194</v>
@@ -8170,7 +8110,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.887392567908069</v>
+        <v>1.910426772509905</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.931941599273163</v>
@@ -8259,7 +8199,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.901749458700492</v>
+        <v>1.923693114581628</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.867158125031555</v>
@@ -8348,7 +8288,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.908504555635181</v>
+        <v>1.930696675104402</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.81181568443191</v>
@@ -8437,7 +8377,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.906415356914802</v>
+        <v>1.92248873431675</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.931827391516132</v>
@@ -8526,7 +8466,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.907512274921184</v>
+        <v>1.919960864228734</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.87390168853329</v>
@@ -8615,7 +8555,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.902542292762085</v>
+        <v>1.914725750134909</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.043586597399361</v>
@@ -8704,7 +8644,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.905841548800729</v>
+        <v>1.913113692848647</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.858271617615433</v>
@@ -8793,7 +8733,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.908874833131724</v>
+        <v>1.917511576142277</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.865008312468386</v>
@@ -8882,7 +8822,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.911547391944907</v>
+        <v>1.919024303744858</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.118965284030199</v>
@@ -8971,7 +8911,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.91271704048084</v>
+        <v>1.921425187341531</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.84216038960144</v>
@@ -9257,7 +9197,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.384373208537558</v>
+        <v>1.389423797537265</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.589288193593948</v>
@@ -9346,7 +9286,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.390332628116295</v>
+        <v>1.394635034522566</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.581595053426053</v>
@@ -9435,7 +9375,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.398156549123075</v>
+        <v>1.403288127781397</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.599770702151806</v>
@@ -9524,7 +9464,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.44030175280891</v>
+        <v>1.444545665067172</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.563899530935394</v>
@@ -9613,7 +9553,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.496503935476903</v>
+        <v>1.485251882587676</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.454029811812392</v>
@@ -9702,7 +9642,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.776235046607852</v>
+        <v>1.795926999729831</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.456436439327872</v>
@@ -9791,7 +9731,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.805092178588963</v>
+        <v>1.814729289440382</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.858830791793159</v>
@@ -9880,7 +9820,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.80070686459283</v>
+        <v>1.804825700080348</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.232788008568804</v>
@@ -9969,7 +9909,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.790382390052119</v>
+        <v>1.803300903213638</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.762370619107692</v>
@@ -10058,7 +9998,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.802458642822397</v>
+        <v>1.811038064057201</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.954759105312118</v>
@@ -10147,7 +10087,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.820136845301218</v>
+        <v>1.82324378608328</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.108935805826345</v>
@@ -10236,7 +10176,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.818796048872026</v>
+        <v>1.820331226504341</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.110322364451003</v>
@@ -10325,7 +10265,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.821004800509557</v>
+        <v>1.815035888813104</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.034680067877647</v>
@@ -10414,7 +10354,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.809843361097378</v>
+        <v>1.804504032884729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.080193745706983</v>
@@ -10503,7 +10443,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.809696340687199</v>
+        <v>1.800779373827462</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.093741009204062</v>
@@ -10592,7 +10532,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.80607275809288</v>
+        <v>1.795246011089404</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.23807786366872</v>
@@ -10681,7 +10621,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.80172678213641</v>
+        <v>1.79080388670498</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.272259414893913</v>
@@ -10770,7 +10710,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.796414383200084</v>
+        <v>1.78540432752851</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.007291902327136</v>
@@ -10859,7 +10799,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.795435071116594</v>
+        <v>1.785987322520687</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.639510749936329</v>
@@ -10948,7 +10888,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.814119572529152</v>
+        <v>1.801915241442289</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.173844615971592</v>
@@ -11037,7 +10977,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.810689308830255</v>
+        <v>1.798853177954717</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.172986022500618</v>
@@ -11126,7 +11066,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.804185370444397</v>
+        <v>1.787469705693412</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.347271434264885</v>
@@ -11215,7 +11155,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.823503879029307</v>
+        <v>1.80762933442297</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.420573771160776</v>
@@ -11304,7 +11244,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.824480053547602</v>
+        <v>1.806826951553221</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.114288279557501</v>
@@ -11393,7 +11333,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.822953522759938</v>
+        <v>1.807790605051442</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.794791729653979</v>
@@ -11482,7 +11422,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.816956983354392</v>
+        <v>1.802328461182363</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.654748444341134</v>
@@ -11571,7 +11511,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.814392604656148</v>
+        <v>1.802347345528775</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.678244910052196</v>
@@ -11660,7 +11600,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.813396619220824</v>
+        <v>1.807435273111883</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.094410195004206</v>
@@ -11749,7 +11689,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.820459270579103</v>
+        <v>1.817136921042075</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.803022427102822</v>
@@ -11838,7 +11778,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.818552934241869</v>
+        <v>1.813437052404345</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.659724000481432</v>
@@ -11927,7 +11867,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.778416877210034</v>
+        <v>1.781613067407911</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.876393943629316</v>
@@ -12016,7 +11956,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.783495226708099</v>
+        <v>1.783802721186352</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.954032005804905</v>
@@ -12105,7 +12045,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.788824555108356</v>
+        <v>1.790949474399455</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.760484824428653</v>
@@ -12194,7 +12134,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.798679120472615</v>
+        <v>1.801975610871729</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.720730021350705</v>
@@ -12283,7 +12223,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.78386599410186</v>
+        <v>1.786099462694656</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.740827352147316</v>
@@ -12372,7 +12312,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.786791815086276</v>
+        <v>1.789796043370857</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.808749443607194</v>
@@ -12461,7 +12401,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.788834126453283</v>
+        <v>1.796618820946379</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.915963675354739</v>
@@ -12550,7 +12490,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.780021660108367</v>
+        <v>1.780626794638211</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.770770081607284</v>
@@ -12639,7 +12579,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.779423118816914</v>
+        <v>1.778348024665124</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.804681190327096</v>
@@ -12728,7 +12668,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.778540412234427</v>
+        <v>1.779836286002275</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.880554267351198</v>
@@ -12817,7 +12757,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.778665021527107</v>
+        <v>1.776836642280496</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.837285189834224</v>
@@ -12906,7 +12846,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.773533961730784</v>
+        <v>1.771519159754616</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.842660714509928</v>
@@ -12995,7 +12935,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.768385513504752</v>
+        <v>1.764288767354788</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.883421100844695</v>
@@ -13084,7 +13024,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.769275208959815</v>
+        <v>1.763498511309235</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.890973256533027</v>
@@ -13173,7 +13113,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.774313686494543</v>
+        <v>1.770969382026626</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.784884974630584</v>
@@ -13262,7 +13202,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.809508968969571</v>
+        <v>1.801193295781473</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.166300845869484</v>
@@ -13351,7 +13291,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.814507029980131</v>
+        <v>1.807786827504973</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.176306901201928</v>
@@ -13440,7 +13380,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.809896208386371</v>
+        <v>1.805390595374591</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.147726218528299</v>
@@ -13529,7 +13469,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.811662009933654</v>
+        <v>1.804705674295522</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.588078948931517</v>
@@ -13618,7 +13558,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.807028367533254</v>
+        <v>1.801728637424069</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.380215585271246</v>
@@ -13707,7 +13647,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.811341950861761</v>
+        <v>1.802990865081328</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.016572819642349</v>
@@ -13796,7 +13736,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.810225425244721</v>
+        <v>1.803792372533953</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.215086812873668</v>
@@ -13885,7 +13825,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.820406866282288</v>
+        <v>1.811710549652638</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.851342756917899</v>
@@ -14171,7 +14111,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.71638144441935</v>
+        <v>1.73813683364934</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.804130296737995</v>
@@ -14260,7 +14200,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.736776036270962</v>
+        <v>1.754106335379491</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.855206418820885</v>
@@ -14349,7 +14289,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.761287264520243</v>
+        <v>1.778136042967356</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.963608531237743</v>
@@ -14438,7 +14378,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.749608825328669</v>
+        <v>1.762370718567415</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.743258250236523</v>
@@ -14527,7 +14467,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.748932099819539</v>
+        <v>1.755573649876202</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.370046923448842</v>
@@ -14616,7 +14556,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.780944315921576</v>
+        <v>1.788120281653985</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.915788002463258</v>
@@ -14705,7 +14645,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.808782849856084</v>
+        <v>1.811291419266764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.303750305657917</v>
@@ -14794,7 +14734,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.804623033586608</v>
+        <v>1.804553309594802</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.158957172624252</v>
@@ -14883,7 +14823,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.788575701808813</v>
+        <v>1.794945240373654</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.253754451581659</v>
@@ -14972,7 +14912,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.796519924322727</v>
+        <v>1.80147289565421</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.091923205482431</v>
@@ -15061,7 +15001,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.803348026771515</v>
+        <v>1.806167000358041</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.981429211684627</v>
@@ -15150,7 +15090,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.824339206900855</v>
+        <v>1.827858010481846</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.236255345487072</v>
@@ -15239,7 +15179,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.827257924643665</v>
+        <v>1.828465905820525</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.049929514356116</v>
@@ -15328,7 +15268,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.81811188788321</v>
+        <v>1.820855383460338</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.367119012230381</v>
@@ -15417,7 +15357,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.84090527835411</v>
+        <v>1.839221899478001</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.229773004133417</v>
@@ -15506,7 +15446,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.842413964473022</v>
+        <v>1.843890959268282</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.270575482372206</v>
@@ -15595,7 +15535,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.813806289796821</v>
+        <v>1.815971689731242</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.707913868929152</v>
@@ -15684,7 +15624,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.820945290711213</v>
+        <v>1.823020220333798</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.830332613184253</v>
@@ -15773,7 +15713,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.820844160910879</v>
+        <v>1.82650879940826</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.03473922156213</v>
@@ -15862,7 +15802,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.821626804079702</v>
+        <v>1.827133567888127</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.773575838629141</v>
@@ -15951,7 +15891,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.803230105039963</v>
+        <v>1.807697044824197</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.8638144140986</v>
@@ -16040,7 +15980,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.800925213643935</v>
+        <v>1.805197155546616</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.94410911974323</v>
@@ -16129,7 +16069,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.817370681393104</v>
+        <v>1.823742039652192</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.020300554699177</v>
@@ -16218,7 +16158,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.797896071815107</v>
+        <v>1.808647182163361</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.995071648951979</v>
@@ -16307,7 +16247,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.791238619276024</v>
+        <v>1.807100025706813</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.92975834891055</v>
@@ -16396,7 +16336,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.788700008613018</v>
+        <v>1.801254050033277</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.917492437828957</v>
@@ -16485,7 +16425,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.783957242582759</v>
+        <v>1.798357414038878</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.888607106317538</v>
@@ -16574,7 +16514,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.767809101151958</v>
+        <v>1.784158191389448</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.965818695218073</v>
@@ -16663,7 +16603,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.77855758403525</v>
+        <v>1.789288069837244</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.947620402651567</v>
@@ -16752,7 +16692,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.765858930410684</v>
+        <v>1.777961905626902</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.846565726886839</v>
@@ -16841,7 +16781,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.754531210330689</v>
+        <v>1.766323280673546</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.875029355488281</v>
@@ -16930,7 +16870,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.777917022504908</v>
+        <v>1.787031833879808</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.096639969205542</v>
@@ -17019,7 +16959,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.777911363350341</v>
+        <v>1.788550586751267</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.163715914985947</v>
@@ -17108,7 +17048,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.79776949015557</v>
+        <v>1.808574134848307</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.770557414530932</v>
@@ -17197,7 +17137,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.797226094357613</v>
+        <v>1.811275036223684</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.828666356275614</v>
@@ -17286,7 +17226,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.819713217367684</v>
+        <v>1.836533048845023</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.955933309247413</v>
@@ -17375,7 +17315,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.817467712811311</v>
+        <v>1.832927685768543</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.018747989392573</v>
@@ -17464,7 +17404,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.815217244249092</v>
+        <v>1.827140499837861</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.082008108224518</v>
@@ -17553,7 +17493,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.817949186374807</v>
+        <v>1.826168431213982</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.876413086254007</v>
@@ -17642,7 +17582,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.816695081731713</v>
+        <v>1.825852395389198</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.963162515893411</v>
@@ -17731,7 +17671,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.80240374206299</v>
+        <v>1.815599099872124</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.010103026778078</v>
@@ -17820,7 +17760,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.807890528804213</v>
+        <v>1.818145862965789</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.888386078200658</v>
@@ -17909,7 +17849,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.830468184081512</v>
+        <v>1.836780172928195</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.928177139387377</v>
@@ -17998,7 +17938,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.833590714801472</v>
+        <v>1.834801857382886</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.972606520389475</v>
@@ -18087,7 +18027,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.834700296897473</v>
+        <v>1.837549917438571</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.012565446545787</v>
@@ -18176,7 +18116,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.844728798591639</v>
+        <v>1.84896338854191</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.94234985045043</v>
@@ -18265,7 +18205,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.843199352757181</v>
+        <v>1.84823096222793</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.985055961874719</v>
@@ -18354,7 +18294,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.839082159481805</v>
+        <v>1.846546183009844</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.881318657535797</v>
@@ -18443,7 +18383,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.838740385766219</v>
+        <v>1.846572626919607</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.018600944134555</v>
@@ -18532,7 +18472,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.840270614805898</v>
+        <v>1.843148743814659</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.948298218306081</v>
@@ -18621,7 +18561,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.827987400388338</v>
+        <v>1.829418726593684</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.984244800313813</v>
@@ -18710,7 +18650,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.831985837027027</v>
+        <v>1.835732381733248</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.037581283927585</v>
@@ -18799,7 +18739,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.833684966573755</v>
+        <v>1.838371048298645</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.08191888690008</v>
@@ -19085,7 +19025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.793140348504237</v>
+        <v>1.793352754668804</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.092720325687624</v>
@@ -19174,7 +19114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.79963975891073</v>
+        <v>1.795693661857995</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.045259661415932</v>
@@ -19263,7 +19203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.808335921314455</v>
+        <v>1.80585600065263</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.951160746189296</v>
@@ -19352,7 +19292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.798837100090397</v>
+        <v>1.793191762900496</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.104173478425769</v>
@@ -19441,7 +19381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.803162871628628</v>
+        <v>1.791929515685693</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.600958839146751</v>
@@ -19530,7 +19470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.835359788244313</v>
+        <v>1.817289280254879</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.459235292943293</v>
@@ -19619,7 +19559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.845699958176095</v>
+        <v>1.823290544181725</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.258756772483792</v>
@@ -19708,7 +19648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.839932946802191</v>
+        <v>1.818368541843543</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.664573350960061</v>
@@ -19797,7 +19737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.828120629010402</v>
+        <v>1.817651411750864</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.263194189042202</v>
@@ -19886,7 +19826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.833368036757334</v>
+        <v>1.821859259378885</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.277855391438645</v>
@@ -19975,7 +19915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.849020020795336</v>
+        <v>1.836671666830175</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.236121458775189</v>
@@ -20064,7 +20004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.854785928630406</v>
+        <v>1.844256268711963</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.311058642892835</v>
@@ -20153,7 +20093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.853436168159557</v>
+        <v>1.842362613948659</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.497691471371077</v>
@@ -20242,7 +20182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.860760880961597</v>
+        <v>1.849768156474954</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.567170468587288</v>
@@ -20331,7 +20271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.864837841271377</v>
+        <v>1.849676255338383</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.726684885323469</v>
@@ -20420,7 +20360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.863888432231951</v>
+        <v>1.846383565715088</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.669017572236259</v>
@@ -20509,7 +20449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.83384895064972</v>
+        <v>1.824620665431594</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.665778259667595</v>
@@ -20598,7 +20538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.829229563456939</v>
+        <v>1.825203632281058</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.431151101630507</v>
@@ -20687,7 +20627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.830839406183283</v>
+        <v>1.831853531386607</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.796787459037014</v>
@@ -20776,7 +20716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.830074486677868</v>
+        <v>1.837182974688584</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.503804121733493</v>
@@ -20865,7 +20805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.82389126614211</v>
+        <v>1.830961323238436</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.692380956508629</v>
@@ -20954,7 +20894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.827376314756858</v>
+        <v>1.832555025305004</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.638033525113275</v>
@@ -21043,7 +20983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.843706635004235</v>
+        <v>1.847270253799143</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.685551210259687</v>
@@ -21132,7 +21072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.837048447742315</v>
+        <v>1.841171178731406</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.56849721174057</v>
@@ -21221,7 +21161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.833693288586825</v>
+        <v>1.834348430847866</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.45204703255014</v>
@@ -21310,7 +21250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.827760650594971</v>
+        <v>1.824111218463756</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.4576172394636</v>
@@ -21399,7 +21339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.827389540066181</v>
+        <v>1.822014071528963</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.249969681817292</v>
@@ -21488,7 +21428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.830500949149887</v>
+        <v>1.821819690351146</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.570338840478557</v>
@@ -21577,7 +21517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.824417178778814</v>
+        <v>1.815859511829808</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.065479192828613</v>
@@ -21666,7 +21606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.826235333100912</v>
+        <v>1.821583809783873</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.717936111647822</v>
@@ -21755,7 +21695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.831349266147392</v>
+        <v>1.822968409149301</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.216988209184784</v>
@@ -21844,7 +21784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.845239441236616</v>
+        <v>1.839130565256236</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.895083395493552</v>
@@ -21933,7 +21873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.854065257323612</v>
+        <v>1.846201511719714</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.413319239735979</v>
@@ -22022,7 +21962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.872516724805862</v>
+        <v>1.862769002651768</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.786374635509272</v>
@@ -22111,7 +22051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.875069901709067</v>
+        <v>1.861854526159864</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.106817267456719</v>
@@ -22200,7 +22140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.889063410843112</v>
+        <v>1.876403287450325</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.15789020659908</v>
@@ -22289,7 +22229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.885949792036083</v>
+        <v>1.878356509839679</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.518572565090865</v>
@@ -22378,7 +22318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.890337215365616</v>
+        <v>1.880707638484051</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.903945774214545</v>
@@ -22467,7 +22407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.894934354280464</v>
+        <v>1.880305878145788</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.723604441813256</v>
@@ -22556,7 +22496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.894335656849182</v>
+        <v>1.88477013423824</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.726268912695371</v>
@@ -22645,7 +22585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.891614791691112</v>
+        <v>1.885565027774321</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.694568648772628</v>
@@ -22734,7 +22674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.894110282491512</v>
+        <v>1.888400351272857</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.356721712316832</v>
@@ -22823,7 +22763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.892512197447125</v>
+        <v>1.888964949123202</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.449294783619828</v>
@@ -22912,7 +22852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.892032171283568</v>
+        <v>1.885354932974919</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.843675292763157</v>
@@ -23001,7 +22941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.893632403385841</v>
+        <v>1.885720558850847</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.894219708095634</v>
@@ -23090,7 +23030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.88295986619553</v>
+        <v>1.878542711779632</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.5255588911376</v>
@@ -23179,7 +23119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.885099731008527</v>
+        <v>1.880971674548619</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.49045178494849</v>
@@ -23268,7 +23208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.886799594495402</v>
+        <v>1.880904854839383</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.392865957649425</v>
@@ -23357,7 +23297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.880246541517672</v>
+        <v>1.874700457319579</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.741818505297785</v>
@@ -23446,7 +23386,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.878470293662899</v>
+        <v>1.869640198228611</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.474875785968205</v>
@@ -23535,7 +23475,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.87393267484102</v>
+        <v>1.865380728676046</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.151212570126112</v>
@@ -23624,7 +23564,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.873786312315781</v>
+        <v>1.864834648252809</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.947250179576824</v>
@@ -23713,7 +23653,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.862511735478274</v>
+        <v>1.858219013402125</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.082750806924584</v>
@@ -23999,7 +23939,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.610108084121169</v>
+        <v>1.617697042476171</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.603413792683984</v>
@@ -24088,7 +24028,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.644272221372065</v>
+        <v>1.64494230248381</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.370913968388821</v>
@@ -24177,7 +24117,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.652031214505809</v>
+        <v>1.653789198182206</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.595538604543095</v>
@@ -24266,7 +24206,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.638792763079691</v>
+        <v>1.643645811604684</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.434826955286578</v>
@@ -24355,7 +24295,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.641229228124123</v>
+        <v>1.64240584383995</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.503015128134988</v>
@@ -24444,7 +24384,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.671000907578091</v>
+        <v>1.678746166574932</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.011209372409808</v>
@@ -24533,7 +24473,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.679520345517303</v>
+        <v>1.688525490584664</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.953558538617906</v>
@@ -24622,7 +24562,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.67931366606179</v>
+        <v>1.683564997099291</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.895154531826868</v>
@@ -24711,7 +24651,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.68786971031801</v>
+        <v>1.693208247605264</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.594085612810082</v>
@@ -24800,7 +24740,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690437493538059</v>
+        <v>1.696541636024031</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.857436390248937</v>
@@ -24889,7 +24829,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.701903027600557</v>
+        <v>1.708912823080524</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.486864524667487</v>
@@ -24978,7 +24918,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.724634923147673</v>
+        <v>1.733451564928167</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.563184387556317</v>
@@ -25067,7 +25007,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.724090013827784</v>
+        <v>1.728104971047371</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.492372068993739</v>
@@ -25156,7 +25096,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.721293976766214</v>
+        <v>1.724176352760589</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.418635229121222</v>
@@ -25245,7 +25185,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.713890014607575</v>
+        <v>1.715773636102943</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.548951169156991</v>
@@ -25334,7 +25274,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.714223965371027</v>
+        <v>1.710535207824999</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.226055177843425</v>
@@ -25423,7 +25363,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.681737971764614</v>
+        <v>1.682998031097825</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.978784728910437</v>
@@ -25512,7 +25452,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.682074034660548</v>
+        <v>1.685484214645276</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.808576170877395</v>
@@ -25601,7 +25541,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.683669644429554</v>
+        <v>1.688370834648313</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.820382471532191</v>
@@ -25690,7 +25630,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.684011524445205</v>
+        <v>1.683801382338918</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.771172765253492</v>
@@ -25779,7 +25719,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.66294793265797</v>
+        <v>1.665322589350455</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.038039768593144</v>
@@ -25868,7 +25808,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.666237899120455</v>
+        <v>1.669205650728407</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.859120105686372</v>
@@ -25957,7 +25897,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.678634232346626</v>
+        <v>1.688532910364942</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.039822155988407</v>
@@ -26046,7 +25986,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.667999295305116</v>
+        <v>1.6781294543613</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.056789440608371</v>
@@ -26135,7 +26075,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.662232829577544</v>
+        <v>1.669599794505162</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.974243749528538</v>
@@ -26224,7 +26164,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.655485385138056</v>
+        <v>1.668324147038486</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.012114781035913</v>
@@ -26313,7 +26253,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.652891525886794</v>
+        <v>1.664684375093859</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.994779078083965</v>
@@ -26402,7 +26342,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.655824965408673</v>
+        <v>1.670663091525908</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.004899695378365</v>
@@ -26491,7 +26431,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.660353148810156</v>
+        <v>1.672254137232097</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.000733146394889</v>
@@ -26580,7 +26520,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.65158839594999</v>
+        <v>1.66135543450215</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.000216874941286</v>
@@ -26669,7 +26609,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.659954359975841</v>
+        <v>1.666999571176904</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.879185881166632</v>
@@ -26758,7 +26698,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.678101299402487</v>
+        <v>1.688022287843086</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.052879552260036</v>
@@ -26847,7 +26787,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.681902286318357</v>
+        <v>1.69270021158889</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.166474943112067</v>
@@ -26936,7 +26876,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.699591171521141</v>
+        <v>1.70717044900196</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.951311829491949</v>
@@ -27025,7 +26965,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.707148474011005</v>
+        <v>1.715785818096026</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.22257459613971</v>
@@ -27114,7 +27054,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.705391751180188</v>
+        <v>1.71706374441715</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.785115737552536</v>
@@ -27203,7 +27143,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.696932697402722</v>
+        <v>1.707217967764056</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.991045711577917</v>
@@ -27292,7 +27232,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.685689572411091</v>
+        <v>1.691121668747691</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.906735837910198</v>
@@ -27381,7 +27321,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.678794292837753</v>
+        <v>1.682780287620115</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.732514505671001</v>
@@ -27470,7 +27410,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.688811319623466</v>
+        <v>1.690116572383488</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.581358524854375</v>
@@ -27559,7 +27499,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.687014844374477</v>
+        <v>1.683232706830808</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.92750983087173</v>
@@ -27648,7 +27588,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.687966608004579</v>
+        <v>1.68310281963706</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.788499298738647</v>
@@ -27737,7 +27677,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.686985634984569</v>
+        <v>1.67793508525153</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.225445379785614</v>
@@ -27826,7 +27766,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.675162980549161</v>
+        <v>1.668009321249775</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.8851003809758</v>
@@ -27915,7 +27855,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.699187703709537</v>
+        <v>1.690193453546877</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.5638806502766</v>
@@ -28004,7 +27944,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.689727433139107</v>
+        <v>1.680366337817715</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.945095926187058</v>
@@ -28093,7 +28033,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.690187449395996</v>
+        <v>1.679449844023465</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.367933068820392</v>
@@ -28182,7 +28122,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.693542117397966</v>
+        <v>1.679838440037897</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.243022257474666</v>
@@ -28271,7 +28211,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.686903143854037</v>
+        <v>1.67568622855388</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.223070113299806</v>
@@ -28360,7 +28300,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.689497604322085</v>
+        <v>1.672858103046132</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.824062517387316</v>
@@ -28449,7 +28389,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.698735528145266</v>
+        <v>1.681346152677736</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.278525604462652</v>
@@ -28538,7 +28478,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.696305162774997</v>
+        <v>1.676239760419854</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.114950898308743</v>
@@ -28627,7 +28567,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.715797716898909</v>
+        <v>1.697655024815476</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.46912473744132</v>
@@ -28913,7 +28853,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.780391179563286</v>
+        <v>1.818793120913434</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.943700141366504</v>
@@ -29002,7 +28942,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.795673603643932</v>
+        <v>1.83073854917351</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.347121441410427</v>
@@ -29091,7 +29031,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.813657469451095</v>
+        <v>1.852636985956962</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.122813932059627</v>
@@ -29180,7 +29120,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.786519438222186</v>
+        <v>1.826210250060091</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.981826736182922</v>
@@ -29269,7 +29209,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.786529668311668</v>
+        <v>1.821641042488081</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.773541914234893</v>
@@ -29358,7 +29298,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.792703924140215</v>
+        <v>1.827695807532164</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.832195567446794</v>
@@ -29447,7 +29387,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.816269710540522</v>
+        <v>1.850458260368072</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.682196171886136</v>
@@ -29536,7 +29476,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.810988884903093</v>
+        <v>1.83732912703426</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.826545928433984</v>
@@ -29625,7 +29565,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.79321984633895</v>
+        <v>1.829682164516268</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.75024557366224</v>
@@ -29714,7 +29654,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.798414178737225</v>
+        <v>1.837134562539765</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.926574829147906</v>
@@ -29803,7 +29743,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.810249288145205</v>
+        <v>1.849703189847599</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.696775841333864</v>
@@ -29892,7 +29832,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.834521775009383</v>
+        <v>1.876937071837037</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.355072640406395</v>
@@ -29981,7 +29921,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.831039589494308</v>
+        <v>1.87551391323174</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.126842660363812</v>
@@ -30070,7 +30010,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.83404219592649</v>
+        <v>1.874262372685005</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.918143156597614</v>
@@ -30159,7 +30099,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.856613660622587</v>
+        <v>1.893090715904925</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.085337883087282</v>
@@ -30248,7 +30188,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.85418725397795</v>
+        <v>1.890945293113745</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.94395094229114</v>
@@ -30337,7 +30277,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.833327922683028</v>
+        <v>1.86899382340533</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.14397401450276</v>
@@ -30426,7 +30366,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.845987835746126</v>
+        <v>1.878637226405701</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.025643832062894</v>
@@ -30515,7 +30455,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.85109288739925</v>
+        <v>1.885943564193073</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.01394797748651</v>
@@ -30604,7 +30544,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.858497199545876</v>
+        <v>1.893544888336414</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.07412708345007</v>
@@ -30693,7 +30633,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.848025038947381</v>
+        <v>1.879377961053249</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.034729804903726</v>
@@ -30782,7 +30722,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.846074434774576</v>
+        <v>1.879487048451412</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.206962785303139</v>
@@ -30871,7 +30811,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.874876838367984</v>
+        <v>1.904440388426748</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.504406200734221</v>
@@ -30960,7 +30900,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.845115072972905</v>
+        <v>1.876759178850955</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.092246000226418</v>
@@ -31049,7 +30989,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.843585376169591</v>
+        <v>1.872553078038705</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.067102491865886</v>
@@ -31138,7 +31078,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.845797384672141</v>
+        <v>1.869498842037762</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.18401681128359</v>
@@ -31227,7 +31167,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.845958959938384</v>
+        <v>1.867261847911868</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.967795912635548</v>
@@ -31316,7 +31256,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.852158088464803</v>
+        <v>1.869296736022201</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.978633923618852</v>
@@ -31405,7 +31345,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.849201166246002</v>
+        <v>1.86708527231112</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.95140873194355</v>
@@ -31494,7 +31434,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.847606212113758</v>
+        <v>1.866511633655997</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.292204397635849</v>
@@ -31583,7 +31523,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.8491522411813</v>
+        <v>1.866487960786782</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.041450086113974</v>
@@ -31672,7 +31612,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.864998648983411</v>
+        <v>1.882612662735273</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.185753983521863</v>
@@ -31761,7 +31701,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.866281058806439</v>
+        <v>1.88476778455368</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.028658955101525</v>
@@ -31850,7 +31790,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.890771244271135</v>
+        <v>1.907834319426676</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.949316242349675</v>
@@ -31939,7 +31879,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.886257517422818</v>
+        <v>1.905044092653422</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.000863926636358</v>
@@ -32028,7 +31968,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.901078336651224</v>
+        <v>1.919589824500615</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.821979000065373</v>
@@ -32117,7 +32057,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.899906168980287</v>
+        <v>1.918453754296109</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.959854328501176</v>
@@ -32206,7 +32146,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.896224462355691</v>
+        <v>1.914335124270553</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.906967844738663</v>
@@ -32295,7 +32235,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.914255123768658</v>
+        <v>1.924136485715482</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.971903214440137</v>
@@ -32384,7 +32324,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.916179585460589</v>
+        <v>1.92529226078963</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.028446142874961</v>
@@ -32473,7 +32413,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.912568016343923</v>
+        <v>1.92056339864258</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.073979976387686</v>
@@ -32562,7 +32502,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.913109759563093</v>
+        <v>1.918770763118045</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.01746479038682</v>
@@ -32651,7 +32591,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.920581736734065</v>
+        <v>1.928578303706268</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.213072802895816</v>
@@ -32740,7 +32680,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.923288591180466</v>
+        <v>1.928485278186549</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.976182782122075</v>
@@ -32829,7 +32769,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.933836004461147</v>
+        <v>1.936180881292935</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.953969785145664</v>
@@ -32918,7 +32858,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.929054706574506</v>
+        <v>1.928137218102946</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.955061410430277</v>
@@ -33007,7 +32947,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.923564842987476</v>
+        <v>1.925641073178139</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.400687609292293</v>
@@ -33096,7 +33036,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.925548515906826</v>
+        <v>1.927244592699404</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.244410096669306</v>
@@ -33185,7 +33125,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.925124163294387</v>
+        <v>1.924083622413172</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.947873165261184</v>
@@ -33274,7 +33214,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.926618782163526</v>
+        <v>1.922756417355179</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.165396390167847</v>
@@ -33363,7 +33303,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.928863417053176</v>
+        <v>1.926215868417676</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.210737464849966</v>
@@ -33452,7 +33392,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.9231480144071</v>
+        <v>1.920198312180066</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.362304833534939</v>
@@ -33541,7 +33481,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.930201126169417</v>
+        <v>1.926083870164511</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.985630661973368</v>
